--- a/data-pipeline/first_cluster.xlsx
+++ b/data-pipeline/first_cluster.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>deposit_type2</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>first_cluster_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,11 @@
       <c r="D2" t="n">
         <v>2</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +500,11 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,6 +521,11 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -522,6 +542,11 @@
       <c r="D5" t="n">
         <v>2</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -538,6 +563,11 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -554,6 +584,11 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -570,6 +605,11 @@
       <c r="D8" t="n">
         <v>3</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -586,6 +626,11 @@
       <c r="D9" t="n">
         <v>2</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +647,11 @@
       <c r="D10" t="n">
         <v>4</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -618,6 +668,11 @@
       <c r="D11" t="n">
         <v>4</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -634,6 +689,11 @@
       <c r="D12" t="n">
         <v>5</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -649,6 +709,11 @@
       </c>
       <c r="D13" t="n">
         <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -662,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +766,11 @@
           <t>new_flag</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>first_cluster_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -721,6 +791,11 @@
         <v>3</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -741,6 +816,11 @@
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -761,6 +841,11 @@
         <v>3</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -781,6 +866,11 @@
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -801,6 +891,11 @@
         <v>3</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -821,6 +916,11 @@
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -841,6 +941,11 @@
         <v>3</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -861,6 +966,11 @@
         <v>3</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -881,6 +991,11 @@
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -901,6 +1016,11 @@
         <v>3</v>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -921,6 +1041,11 @@
         <v>3</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -941,6 +1066,11 @@
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -961,6 +1091,11 @@
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -981,6 +1116,11 @@
         <v>3</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1001,6 +1141,11 @@
         <v>3</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1021,6 +1166,11 @@
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1041,6 +1191,11 @@
         <v>3</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1061,6 +1216,11 @@
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C17</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1081,6 +1241,11 @@
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1101,6 +1266,11 @@
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1121,6 +1291,11 @@
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C20</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1141,6 +1316,11 @@
         <v>1</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1161,6 +1341,11 @@
         <v>3</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1181,6 +1366,11 @@
         <v>3</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1201,6 +1391,11 @@
         <v>3</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C24</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1221,6 +1416,11 @@
         <v>1</v>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C25</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1241,6 +1441,11 @@
         <v>3</v>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C26</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1261,6 +1466,11 @@
         <v>3</v>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1281,6 +1491,11 @@
         <v>3</v>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C28</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1301,6 +1516,11 @@
         <v>2</v>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1321,6 +1541,11 @@
         <v>3</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1342,6 +1567,11 @@
       </c>
       <c r="F33" t="n">
         <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1394,6 +1624,11 @@
           <t>fr_risk_level</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>first_cluster_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1416,6 +1651,11 @@
       <c r="F2" t="n">
         <v>2</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1438,6 +1678,11 @@
       <c r="F3" t="n">
         <v>2</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1460,6 +1705,11 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1482,6 +1732,11 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1502,6 +1757,11 @@
       <c r="F6" t="n">
         <v>2</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1524,6 +1784,11 @@
       <c r="F7" t="n">
         <v>2</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1546,6 +1811,11 @@
       <c r="F8" t="n">
         <v>2</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1567,6 +1837,11 @@
       </c>
       <c r="F9" t="n">
         <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1604,6 +1879,11 @@
           <t>channel_type2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>first_cluster_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1617,6 +1897,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1630,6 +1915,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1643,6 +1933,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1656,6 +1951,11 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1669,6 +1969,11 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1681,6 +1986,11 @@
       </c>
       <c r="C7" t="n">
         <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N5</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +2004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,6 +2028,11 @@
           <t>pay_type2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>first_cluster_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1731,6 +2046,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1744,6 +2064,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1757,6 +2082,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1769,6 +2099,11 @@
       </c>
       <c r="C5" t="n">
         <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
     </row>
   </sheetData>
